--- a/data/pca/factorExposure/factorExposure_2011-08-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +735,66 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.01978407513352508</v>
+        <v>-0.01689150289542772</v>
       </c>
       <c r="C2">
-        <v>0.01083112748027388</v>
+        <v>0.006584070716970618</v>
       </c>
       <c r="D2">
-        <v>-0.040711511015064</v>
+        <v>-0.02593132252209729</v>
       </c>
       <c r="E2">
-        <v>0.06911386187480618</v>
+        <v>-0.03735056877621944</v>
       </c>
       <c r="F2">
-        <v>0.005748645542885791</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02144617500165558</v>
+      </c>
+      <c r="G2">
+        <v>-0.01726140276125434</v>
+      </c>
+      <c r="H2">
+        <v>-0.01882887317932523</v>
+      </c>
+      <c r="I2">
+        <v>0.008516589023674791</v>
+      </c>
+      <c r="J2">
+        <v>0.03235201454594948</v>
+      </c>
+      <c r="K2">
+        <v>0.07545451285556447</v>
+      </c>
+      <c r="L2">
+        <v>0.05605851972537609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +811,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.07580459094920863</v>
+        <v>-0.09376268920001954</v>
       </c>
       <c r="C4">
-        <v>0.04341389033702486</v>
+        <v>0.05066647877535978</v>
       </c>
       <c r="D4">
-        <v>-0.06127821955407317</v>
+        <v>-0.02727764688915574</v>
       </c>
       <c r="E4">
-        <v>0.02298214954274832</v>
+        <v>-0.03431984655904523</v>
       </c>
       <c r="F4">
-        <v>0.03136238060504595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.08369218164807012</v>
+      </c>
+      <c r="G4">
+        <v>-0.04878750439377656</v>
+      </c>
+      <c r="H4">
+        <v>-0.001432689868739502</v>
+      </c>
+      <c r="I4">
+        <v>-0.08231706746607624</v>
+      </c>
+      <c r="J4">
+        <v>-0.008806325954577999</v>
+      </c>
+      <c r="K4">
+        <v>-0.05561784795849582</v>
+      </c>
+      <c r="L4">
+        <v>-0.02839315744774987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +887,446 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.1210609407348775</v>
+        <v>-0.1308316368539134</v>
       </c>
       <c r="C6">
-        <v>0.002965532925376342</v>
+        <v>0.01994053743985725</v>
       </c>
       <c r="D6">
-        <v>-0.05752951519852716</v>
+        <v>-0.06179537259784151</v>
       </c>
       <c r="E6">
-        <v>0.07529121798664618</v>
+        <v>-0.01580644480639657</v>
       </c>
       <c r="F6">
-        <v>0.04704314986109609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.05582777243531532</v>
+      </c>
+      <c r="G6">
+        <v>-0.06479781708558859</v>
+      </c>
+      <c r="H6">
+        <v>0.1668263562336791</v>
+      </c>
+      <c r="I6">
+        <v>-0.08513563775618149</v>
+      </c>
+      <c r="J6">
+        <v>-0.4502035618264314</v>
+      </c>
+      <c r="K6">
+        <v>0.002479143755080812</v>
+      </c>
+      <c r="L6">
+        <v>-0.02564830776956175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.06763547459663168</v>
+        <v>-0.06954403204141292</v>
       </c>
       <c r="C7">
-        <v>0.01255741503686857</v>
+        <v>0.04992146559450665</v>
       </c>
       <c r="D7">
-        <v>-0.05040048009118561</v>
+        <v>-0.04059404919579455</v>
       </c>
       <c r="E7">
-        <v>0.05458112460080432</v>
+        <v>-0.03586745099272062</v>
       </c>
       <c r="F7">
-        <v>0.008908661692578873</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.0401595588083691</v>
+      </c>
+      <c r="G7">
+        <v>0.003222159059718434</v>
+      </c>
+      <c r="H7">
+        <v>-0.001149543283210767</v>
+      </c>
+      <c r="I7">
+        <v>-0.03003015511038802</v>
+      </c>
+      <c r="J7">
+        <v>0.0661242092492718</v>
+      </c>
+      <c r="K7">
+        <v>-0.05530532249861646</v>
+      </c>
+      <c r="L7">
+        <v>0.02678765054820503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.03202346476739451</v>
+        <v>-0.03765843094735481</v>
       </c>
       <c r="C8">
-        <v>0.03744036092373201</v>
+        <v>0.01596680318579148</v>
       </c>
       <c r="D8">
-        <v>0.01471519990840518</v>
+        <v>0.01379042034811276</v>
       </c>
       <c r="E8">
-        <v>0.05196373302098836</v>
+        <v>-0.0642992032973584</v>
       </c>
       <c r="F8">
-        <v>0.03828771640632325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02324761964766935</v>
+      </c>
+      <c r="G8">
+        <v>-0.06131539967294458</v>
+      </c>
+      <c r="H8">
+        <v>0.01966088156313327</v>
+      </c>
+      <c r="I8">
+        <v>-0.1029688028754514</v>
+      </c>
+      <c r="J8">
+        <v>0.005420738505742721</v>
+      </c>
+      <c r="K8">
+        <v>-0.05376923440764386</v>
+      </c>
+      <c r="L8">
+        <v>-0.0629460785367946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.0748530643528673</v>
+        <v>-0.08560171075472431</v>
       </c>
       <c r="C9">
-        <v>0.05291825567328733</v>
+        <v>0.04984965868851064</v>
       </c>
       <c r="D9">
-        <v>-0.05402019747468131</v>
+        <v>-0.02617525643376088</v>
       </c>
       <c r="E9">
-        <v>0.02446696939750937</v>
+        <v>-0.0255137959430143</v>
       </c>
       <c r="F9">
-        <v>0.02152453741499651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.06428974908375151</v>
+      </c>
+      <c r="G9">
+        <v>-0.05604463417596552</v>
+      </c>
+      <c r="H9">
+        <v>-0.003163400727110249</v>
+      </c>
+      <c r="I9">
+        <v>-0.09000511640530245</v>
+      </c>
+      <c r="J9">
+        <v>-0.001528741130215365</v>
+      </c>
+      <c r="K9">
+        <v>-0.03179091719826357</v>
+      </c>
+      <c r="L9">
+        <v>-0.039545607885739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.02627163447442619</v>
+        <v>-0.08110593222445103</v>
       </c>
       <c r="C10">
-        <v>-0.1453999021813469</v>
+        <v>-0.1874185569257394</v>
       </c>
       <c r="D10">
-        <v>0.0237552755100667</v>
+        <v>-0.001373474277347753</v>
       </c>
       <c r="E10">
-        <v>0.07319029530941677</v>
+        <v>-0.0494005674885088</v>
       </c>
       <c r="F10">
-        <v>0.03725044105241339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03552702402005183</v>
+      </c>
+      <c r="G10">
+        <v>0.04760912962976761</v>
+      </c>
+      <c r="H10">
+        <v>0.03382232958395136</v>
+      </c>
+      <c r="I10">
+        <v>0.03142263313822496</v>
+      </c>
+      <c r="J10">
+        <v>0.02524672914286692</v>
+      </c>
+      <c r="K10">
+        <v>0.01636527447668553</v>
+      </c>
+      <c r="L10">
+        <v>-0.006772183441541822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.07050191698232207</v>
+        <v>-0.07273573081363315</v>
       </c>
       <c r="C11">
-        <v>0.05757334430735118</v>
+        <v>0.057024773372916</v>
       </c>
       <c r="D11">
-        <v>-0.04916147376021416</v>
+        <v>-0.03071935859718119</v>
       </c>
       <c r="E11">
-        <v>0.03389299495954481</v>
+        <v>-0.01722777170227217</v>
       </c>
       <c r="F11">
-        <v>-0.006593732243622421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03048847426674805</v>
+      </c>
+      <c r="G11">
+        <v>-0.07535908263726265</v>
+      </c>
+      <c r="H11">
+        <v>-0.014145438050506</v>
+      </c>
+      <c r="I11">
+        <v>-0.05687485266881766</v>
+      </c>
+      <c r="J11">
+        <v>0.06982098046000443</v>
+      </c>
+      <c r="K11">
+        <v>0.03514012156962521</v>
+      </c>
+      <c r="L11">
+        <v>-0.03494584221449636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.06514263563862824</v>
+        <v>-0.07145086705958555</v>
       </c>
       <c r="C12">
-        <v>0.04015407593853874</v>
+        <v>0.0449048918737957</v>
       </c>
       <c r="D12">
-        <v>-0.04446468296707916</v>
+        <v>-0.01588702229959444</v>
       </c>
       <c r="E12">
-        <v>0.0193180409771352</v>
+        <v>-0.01258482664850988</v>
       </c>
       <c r="F12">
-        <v>0.01122707383319632</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.03818314012516724</v>
+      </c>
+      <c r="G12">
+        <v>-0.06363406686509412</v>
+      </c>
+      <c r="H12">
+        <v>0.005089319791946474</v>
+      </c>
+      <c r="I12">
+        <v>-0.08367295495959612</v>
+      </c>
+      <c r="J12">
+        <v>0.06725826385774626</v>
+      </c>
+      <c r="K12">
+        <v>0.009728560320415202</v>
+      </c>
+      <c r="L12">
+        <v>-0.02362502741696462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.07396417766000264</v>
+        <v>-0.06458530494611882</v>
       </c>
       <c r="C13">
-        <v>0.02237711332800005</v>
+        <v>0.03583134359151467</v>
       </c>
       <c r="D13">
-        <v>-0.01631637226138225</v>
+        <v>0.01846707675450973</v>
       </c>
       <c r="E13">
-        <v>0.02403158038452956</v>
+        <v>-0.02549570073015215</v>
       </c>
       <c r="F13">
-        <v>0.02436102798328143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.019975789790012</v>
+      </c>
+      <c r="G13">
+        <v>-0.02822244158190565</v>
+      </c>
+      <c r="H13">
+        <v>-0.005415744768379674</v>
+      </c>
+      <c r="I13">
+        <v>-0.06881449289300177</v>
+      </c>
+      <c r="J13">
+        <v>0.03060402961575892</v>
+      </c>
+      <c r="K13">
+        <v>-0.09570236660638091</v>
+      </c>
+      <c r="L13">
+        <v>-0.007276513231255935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.03567518062635911</v>
+        <v>-0.04422289081728727</v>
       </c>
       <c r="C14">
-        <v>-0.001742911335907813</v>
+        <v>0.01243109671093983</v>
       </c>
       <c r="D14">
-        <v>-0.03858313435694474</v>
+        <v>-0.02574073326032289</v>
       </c>
       <c r="E14">
-        <v>0.007559467106187306</v>
+        <v>-0.003785828418633432</v>
       </c>
       <c r="F14">
-        <v>0.003364143661931316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.04216154566555912</v>
+      </c>
+      <c r="G14">
+        <v>-0.03530354357042659</v>
+      </c>
+      <c r="H14">
+        <v>-0.04308463086851897</v>
+      </c>
+      <c r="I14">
+        <v>-0.06203610801850334</v>
+      </c>
+      <c r="J14">
+        <v>-0.01285025342121176</v>
+      </c>
+      <c r="K14">
+        <v>-0.04766784614720229</v>
+      </c>
+      <c r="L14">
+        <v>-0.03564015352879391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.05333736774709082</v>
+        <v>-0.04170642935877834</v>
       </c>
       <c r="C15">
-        <v>0.008756323091008456</v>
+        <v>0.01426864494459598</v>
       </c>
       <c r="D15">
-        <v>-0.007361235399914839</v>
+        <v>0.01909020076650814</v>
       </c>
       <c r="E15">
-        <v>0.00713568304344384</v>
+        <v>0.001671562659246989</v>
       </c>
       <c r="F15">
-        <v>0.03423974808563989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.02449927910726088</v>
+      </c>
+      <c r="G15">
+        <v>-0.01347984399841602</v>
+      </c>
+      <c r="H15">
+        <v>-0.006812650259357882</v>
+      </c>
+      <c r="I15">
+        <v>-0.0320300429747491</v>
+      </c>
+      <c r="J15">
+        <v>-0.0299522052836594</v>
+      </c>
+      <c r="K15">
+        <v>-0.06897874900432883</v>
+      </c>
+      <c r="L15">
+        <v>-0.02625537927630819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.05695934481363717</v>
+        <v>-0.07196478615139794</v>
       </c>
       <c r="C16">
-        <v>0.05562894392435781</v>
+        <v>0.05844159728754419</v>
       </c>
       <c r="D16">
-        <v>-0.04137980497183162</v>
+        <v>-0.0224559189918443</v>
       </c>
       <c r="E16">
-        <v>0.01865915546640921</v>
+        <v>-0.01293291565175487</v>
       </c>
       <c r="F16">
-        <v>0.02371953269494907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.04335486267932243</v>
+      </c>
+      <c r="G16">
+        <v>-0.05471001137957015</v>
+      </c>
+      <c r="H16">
+        <v>-0.01682603625163727</v>
+      </c>
+      <c r="I16">
+        <v>-0.05608461905346082</v>
+      </c>
+      <c r="J16">
+        <v>0.05167154942785478</v>
+      </c>
+      <c r="K16">
+        <v>0.01932535891228124</v>
+      </c>
+      <c r="L16">
+        <v>-0.0372555444524563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1343,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1381,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1419,294 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.06138505433820861</v>
+        <v>-0.05711642803730303</v>
       </c>
       <c r="C20">
-        <v>0.04708867271653606</v>
+        <v>0.03717930462226385</v>
       </c>
       <c r="D20">
-        <v>-0.0179831519414505</v>
+        <v>-0.01128804396583436</v>
       </c>
       <c r="E20">
-        <v>0.0291110342573479</v>
+        <v>-0.02341904228640002</v>
       </c>
       <c r="F20">
-        <v>0.01595357025144541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01124525734349354</v>
+      </c>
+      <c r="G20">
+        <v>-0.0425170774872903</v>
+      </c>
+      <c r="H20">
+        <v>-0.0203826447969903</v>
+      </c>
+      <c r="I20">
+        <v>-0.1174266431792186</v>
+      </c>
+      <c r="J20">
+        <v>0.03835388723406775</v>
+      </c>
+      <c r="K20">
+        <v>-0.03658763249657315</v>
+      </c>
+      <c r="L20">
+        <v>0.007375596845440811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.03908603105187158</v>
+        <v>-0.02883921552963101</v>
       </c>
       <c r="C21">
-        <v>0.02902086861993986</v>
+        <v>0.0214619919579497</v>
       </c>
       <c r="D21">
-        <v>0.02253403737386609</v>
+        <v>0.03740126868404066</v>
       </c>
       <c r="E21">
-        <v>0.01176071501153564</v>
+        <v>-0.01841478324452644</v>
       </c>
       <c r="F21">
-        <v>0.04870590826003697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01243031610703156</v>
+      </c>
+      <c r="G21">
+        <v>-0.01448325019396536</v>
+      </c>
+      <c r="H21">
+        <v>0.06095106215186245</v>
+      </c>
+      <c r="I21">
+        <v>-0.06046671419776116</v>
+      </c>
+      <c r="J21">
+        <v>-0.04625707045140013</v>
+      </c>
+      <c r="K21">
+        <v>-0.04956114710025701</v>
+      </c>
+      <c r="L21">
+        <v>-0.02656124973748553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.11669173236166</v>
+        <v>-0.08747830246084044</v>
       </c>
       <c r="C22">
-        <v>0.1184017527699908</v>
+        <v>0.09359627154935277</v>
       </c>
       <c r="D22">
-        <v>0.02762182146439008</v>
+        <v>0.4316854718045285</v>
       </c>
       <c r="E22">
-        <v>-0.01417049942422946</v>
+        <v>-0.1318792447558484</v>
       </c>
       <c r="F22">
-        <v>0.4382298943516668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.3681073642737415</v>
+      </c>
+      <c r="G22">
+        <v>0.2629094437866021</v>
+      </c>
+      <c r="H22">
+        <v>0.041237546158389</v>
+      </c>
+      <c r="I22">
+        <v>0.1970303099794445</v>
+      </c>
+      <c r="J22">
+        <v>-0.0330700508024151</v>
+      </c>
+      <c r="K22">
+        <v>0.03314958820995352</v>
+      </c>
+      <c r="L22">
+        <v>0.06614467795987451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.1177171670441837</v>
+        <v>-0.08842109098115108</v>
       </c>
       <c r="C23">
-        <v>0.117504317928791</v>
+        <v>0.0939592514046682</v>
       </c>
       <c r="D23">
-        <v>0.02567416873145003</v>
+        <v>0.4323194584878299</v>
       </c>
       <c r="E23">
-        <v>-0.01309067928411963</v>
+        <v>-0.1331138108548936</v>
       </c>
       <c r="F23">
-        <v>0.4400173049533651</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3725482984595622</v>
+      </c>
+      <c r="G23">
+        <v>0.2575957177983061</v>
+      </c>
+      <c r="H23">
+        <v>0.0397567151906572</v>
+      </c>
+      <c r="I23">
+        <v>0.1974246726432975</v>
+      </c>
+      <c r="J23">
+        <v>-0.03933061934422427</v>
+      </c>
+      <c r="K23">
+        <v>0.03501857564421931</v>
+      </c>
+      <c r="L23">
+        <v>0.06641860793555561</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.07980917542886315</v>
+        <v>-0.08201512997637825</v>
       </c>
       <c r="C24">
-        <v>0.05264022861462392</v>
+        <v>0.05663501827709172</v>
       </c>
       <c r="D24">
-        <v>-0.04288970156044433</v>
+        <v>-0.01529806695751006</v>
       </c>
       <c r="E24">
-        <v>0.03687527352417734</v>
+        <v>-0.02306186266286736</v>
       </c>
       <c r="F24">
-        <v>0.02699805188959813</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.04720176965387755</v>
+      </c>
+      <c r="G24">
+        <v>-0.07188323749269551</v>
+      </c>
+      <c r="H24">
+        <v>0.004494578777131755</v>
+      </c>
+      <c r="I24">
+        <v>-0.06980328629528937</v>
+      </c>
+      <c r="J24">
+        <v>0.05079106561292707</v>
+      </c>
+      <c r="K24">
+        <v>0.02018510986106554</v>
+      </c>
+      <c r="L24">
+        <v>-0.03894165080071206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.0739096661038184</v>
+        <v>-0.07751572107582122</v>
       </c>
       <c r="C25">
-        <v>0.0363142908117744</v>
+        <v>0.03670315467060602</v>
       </c>
       <c r="D25">
-        <v>-0.05047580556440467</v>
+        <v>-0.0257271590644947</v>
       </c>
       <c r="E25">
-        <v>0.04767171679309426</v>
+        <v>-0.02200150204794844</v>
       </c>
       <c r="F25">
-        <v>0.04093888110397388</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.05251794064164104</v>
+      </c>
+      <c r="G25">
+        <v>-0.06649064497682516</v>
+      </c>
+      <c r="H25">
+        <v>-0.01570213634436123</v>
+      </c>
+      <c r="I25">
+        <v>-0.0865167918375222</v>
+      </c>
+      <c r="J25">
+        <v>0.05641790899919759</v>
+      </c>
+      <c r="K25">
+        <v>0.03691923977792887</v>
+      </c>
+      <c r="L25">
+        <v>-0.02745038779400824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.05184156877743874</v>
+        <v>-0.04454002513882321</v>
       </c>
       <c r="C26">
-        <v>0.01818836850070299</v>
+        <v>0.02757711520065084</v>
       </c>
       <c r="D26">
-        <v>-0.002708217984840081</v>
+        <v>0.01939249633586745</v>
       </c>
       <c r="E26">
-        <v>0.03277814099508067</v>
+        <v>-0.00911926400605957</v>
       </c>
       <c r="F26">
-        <v>-0.01562916236404603</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01135992302035014</v>
+      </c>
+      <c r="G26">
+        <v>-0.0256288019990314</v>
+      </c>
+      <c r="H26">
+        <v>-0.02115430337405559</v>
+      </c>
+      <c r="I26">
+        <v>-0.03453709459021541</v>
+      </c>
+      <c r="J26">
+        <v>-0.01443707673430521</v>
+      </c>
+      <c r="K26">
+        <v>-0.1165777171606318</v>
+      </c>
+      <c r="L26">
+        <v>-0.01016144444726845</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1723,370 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.05999287765800213</v>
+        <v>-0.1012276744807507</v>
       </c>
       <c r="C28">
-        <v>-0.2962502293588625</v>
+        <v>-0.2965914299459456</v>
       </c>
       <c r="D28">
-        <v>0.05350242582671902</v>
+        <v>0.02449090237870841</v>
       </c>
       <c r="E28">
-        <v>0.08057179661348121</v>
+        <v>-0.03703238659549105</v>
       </c>
       <c r="F28">
-        <v>-0.008575221085589587</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.0004495086316666229</v>
+      </c>
+      <c r="G28">
+        <v>0.0001150863217602723</v>
+      </c>
+      <c r="H28">
+        <v>0.03167950760360793</v>
+      </c>
+      <c r="I28">
+        <v>0.02832646223474935</v>
+      </c>
+      <c r="J28">
+        <v>-0.01047040444851782</v>
+      </c>
+      <c r="K28">
+        <v>-0.0662507987459736</v>
+      </c>
+      <c r="L28">
+        <v>-0.03076441102229849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05478655215088703</v>
+        <v>-0.05154178435763609</v>
       </c>
       <c r="C29">
-        <v>-0.002815526180653772</v>
+        <v>0.01466993849904582</v>
       </c>
       <c r="D29">
-        <v>-0.02472841887533808</v>
+        <v>-0.006912860445371431</v>
       </c>
       <c r="E29">
-        <v>0.01773076899645567</v>
+        <v>-0.01947001135261028</v>
       </c>
       <c r="F29">
-        <v>0.03930861183951102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03748246836352242</v>
+      </c>
+      <c r="G29">
+        <v>-0.03651443892297127</v>
+      </c>
+      <c r="H29">
+        <v>-0.05260377753830914</v>
+      </c>
+      <c r="I29">
+        <v>-0.04410714058275422</v>
+      </c>
+      <c r="J29">
+        <v>-0.01325964201731884</v>
+      </c>
+      <c r="K29">
+        <v>-0.03534443566589421</v>
+      </c>
+      <c r="L29">
+        <v>-0.01119739071808712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.1505477231754441</v>
+        <v>-0.124124520669815</v>
       </c>
       <c r="C30">
-        <v>0.05963511770321842</v>
+        <v>0.06289475591503815</v>
       </c>
       <c r="D30">
-        <v>-0.09475893352022549</v>
+        <v>0.004008036030900657</v>
       </c>
       <c r="E30">
-        <v>0.07666352727677495</v>
+        <v>-0.05905950510378712</v>
       </c>
       <c r="F30">
-        <v>0.05733908018188463</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1204197835369833</v>
+      </c>
+      <c r="G30">
+        <v>-0.08021708034626991</v>
+      </c>
+      <c r="H30">
+        <v>0.0956862813120197</v>
+      </c>
+      <c r="I30">
+        <v>-0.2330954209828702</v>
+      </c>
+      <c r="J30">
+        <v>0.1525843465941794</v>
+      </c>
+      <c r="K30">
+        <v>-0.2771995088540964</v>
+      </c>
+      <c r="L30">
+        <v>0.2305178354107131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.0585001112669064</v>
+        <v>-0.04610388437045435</v>
       </c>
       <c r="C31">
-        <v>0.01154222579716621</v>
+        <v>0.03931852468542529</v>
       </c>
       <c r="D31">
-        <v>-0.02995318857744018</v>
+        <v>0.003471055364482263</v>
       </c>
       <c r="E31">
-        <v>0.002015248253826092</v>
+        <v>0.006516647119454081</v>
       </c>
       <c r="F31">
-        <v>0.007558612086287937</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02124704830098937</v>
+      </c>
+      <c r="G31">
+        <v>-0.003710717040476862</v>
+      </c>
+      <c r="H31">
+        <v>-0.05541262438613879</v>
+      </c>
+      <c r="I31">
+        <v>-0.04876610984452444</v>
+      </c>
+      <c r="J31">
+        <v>-0.01173174842744692</v>
+      </c>
+      <c r="K31">
+        <v>-0.02092663615941101</v>
+      </c>
+      <c r="L31">
+        <v>0.01560821467254872</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.04682124517745903</v>
+        <v>-0.04993079669218557</v>
       </c>
       <c r="C32">
-        <v>0.01567073738735216</v>
+        <v>0.002944900800538855</v>
       </c>
       <c r="D32">
-        <v>-0.009483989805057448</v>
+        <v>0.03747222828106053</v>
       </c>
       <c r="E32">
-        <v>-0.00957900341992364</v>
+        <v>-0.006866780926237734</v>
       </c>
       <c r="F32">
-        <v>0.06645502290305962</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.05589526152928941</v>
+      </c>
+      <c r="G32">
+        <v>-0.003010278703108276</v>
+      </c>
+      <c r="H32">
+        <v>0.002442753941181532</v>
+      </c>
+      <c r="I32">
+        <v>0.002189992683086657</v>
+      </c>
+      <c r="J32">
+        <v>0.01249336393551549</v>
+      </c>
+      <c r="K32">
+        <v>-0.1352356372590698</v>
+      </c>
+      <c r="L32">
+        <v>0.02639159734022136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1029543252929425</v>
+        <v>-0.1063030905010672</v>
       </c>
       <c r="C33">
-        <v>0.02993858977856942</v>
+        <v>0.04915169373132715</v>
       </c>
       <c r="D33">
-        <v>-0.05475015907035156</v>
+        <v>-0.007177798702879787</v>
       </c>
       <c r="E33">
-        <v>0.01384031466928006</v>
+        <v>0.01833259497282482</v>
       </c>
       <c r="F33">
-        <v>-0.005778745343133142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.0437593861385311</v>
+      </c>
+      <c r="G33">
+        <v>-0.03924005827924169</v>
+      </c>
+      <c r="H33">
+        <v>-0.03346274072929518</v>
+      </c>
+      <c r="I33">
+        <v>-0.07663298737693884</v>
+      </c>
+      <c r="J33">
+        <v>0.005425735631037964</v>
+      </c>
+      <c r="K33">
+        <v>-0.03546748900929014</v>
+      </c>
+      <c r="L33">
+        <v>-0.05818386003100839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.05965423263162955</v>
+        <v>-0.06810075131689185</v>
       </c>
       <c r="C34">
-        <v>0.05547916886126487</v>
+        <v>0.0443476264325455</v>
       </c>
       <c r="D34">
-        <v>-0.0334528883451717</v>
+        <v>-0.01877004703930675</v>
       </c>
       <c r="E34">
-        <v>0.02249394968224517</v>
+        <v>-0.01190054526399191</v>
       </c>
       <c r="F34">
-        <v>0.03572715812330382</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03347986509423325</v>
+      </c>
+      <c r="G34">
+        <v>-0.05782117700031419</v>
+      </c>
+      <c r="H34">
+        <v>-0.01800871720875873</v>
+      </c>
+      <c r="I34">
+        <v>-0.06510949513904202</v>
+      </c>
+      <c r="J34">
+        <v>0.03802117600286227</v>
+      </c>
+      <c r="K34">
+        <v>0.03952312656419191</v>
+      </c>
+      <c r="L34">
+        <v>-0.05244770378129916</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.0404900379996977</v>
+        <v>-0.03455539690204552</v>
       </c>
       <c r="C35">
-        <v>0.01232272508624419</v>
+        <v>0.02164130825198744</v>
       </c>
       <c r="D35">
-        <v>-0.02330109239538495</v>
+        <v>-0.006406645079086807</v>
       </c>
       <c r="E35">
-        <v>0.00112274672885211</v>
+        <v>0.006868484401717409</v>
       </c>
       <c r="F35">
-        <v>0.01313261989980412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.02026371568741805</v>
+      </c>
+      <c r="G35">
+        <v>0.005621088097639339</v>
+      </c>
+      <c r="H35">
+        <v>-0.02100701953820498</v>
+      </c>
+      <c r="I35">
+        <v>-0.06785949888994372</v>
+      </c>
+      <c r="J35">
+        <v>0.03248277958707022</v>
+      </c>
+      <c r="K35">
+        <v>-0.02098729857291045</v>
+      </c>
+      <c r="L35">
+        <v>0.02093791088169917</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.0357361487313315</v>
+        <v>-0.03316998092549252</v>
       </c>
       <c r="C36">
-        <v>0.01030988314154327</v>
+        <v>0.01412761883596918</v>
       </c>
       <c r="D36">
-        <v>-0.0103568115977211</v>
+        <v>0.008110396849435467</v>
       </c>
       <c r="E36">
-        <v>0.03009900706606315</v>
+        <v>-0.02062121555297163</v>
       </c>
       <c r="F36">
-        <v>0.02583720927915915</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02798149413917685</v>
+      </c>
+      <c r="G36">
+        <v>-0.03319759660213886</v>
+      </c>
+      <c r="H36">
+        <v>-0.009524601260361974</v>
+      </c>
+      <c r="I36">
+        <v>-0.06941274240566223</v>
+      </c>
+      <c r="J36">
+        <v>0.004909727245583587</v>
+      </c>
+      <c r="K36">
+        <v>-0.03440063088020042</v>
+      </c>
+      <c r="L36">
+        <v>-0.00837666520804088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +2103,180 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.06670605670632977</v>
+        <v>-0.04972874705095522</v>
       </c>
       <c r="C38">
-        <v>0.01434518340805036</v>
+        <v>0.04350340162440302</v>
       </c>
       <c r="D38">
-        <v>0.01293811977586534</v>
+        <v>0.02947794137444371</v>
       </c>
       <c r="E38">
-        <v>-0.01214742591621708</v>
+        <v>-0.01754989972511161</v>
       </c>
       <c r="F38">
-        <v>0.06181143422927005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.009654533173673164</v>
+      </c>
+      <c r="G38">
+        <v>0.01176825064950279</v>
+      </c>
+      <c r="H38">
+        <v>-0.02026088515342469</v>
+      </c>
+      <c r="I38">
+        <v>0.1307969821126237</v>
+      </c>
+      <c r="J38">
+        <v>0.02395252882902233</v>
+      </c>
+      <c r="K38">
+        <v>-0.0991848474366057</v>
+      </c>
+      <c r="L38">
+        <v>-0.02017854939584885</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.09403548451805213</v>
+        <v>-0.09685338527293545</v>
       </c>
       <c r="C39">
-        <v>0.0478710498369929</v>
+        <v>0.05309815151493536</v>
       </c>
       <c r="D39">
-        <v>-0.05626512540243065</v>
+        <v>-0.01774940584406818</v>
       </c>
       <c r="E39">
-        <v>0.01282905322181359</v>
+        <v>-0.01433747907075749</v>
       </c>
       <c r="F39">
-        <v>0.02079368003776033</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04941517197034008</v>
+      </c>
+      <c r="G39">
+        <v>-0.06101026945421885</v>
+      </c>
+      <c r="H39">
+        <v>-0.0007477167498886697</v>
+      </c>
+      <c r="I39">
+        <v>-0.08487372433093292</v>
+      </c>
+      <c r="J39">
+        <v>0.1663221689143287</v>
+      </c>
+      <c r="K39">
+        <v>-0.006358888099357813</v>
+      </c>
+      <c r="L39">
+        <v>0.04038355808700688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.06862567653122463</v>
+        <v>-0.04166900799368566</v>
       </c>
       <c r="C40">
-        <v>0.009755329032991391</v>
+        <v>0.04465434690879695</v>
       </c>
       <c r="D40">
-        <v>-0.01585375151989166</v>
+        <v>0.05943744300846245</v>
       </c>
       <c r="E40">
-        <v>0.01623095637893957</v>
+        <v>8.017785044214361e-06</v>
       </c>
       <c r="F40">
-        <v>0.1105810685188696</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02694364341479214</v>
+      </c>
+      <c r="G40">
+        <v>-0.096490713031335</v>
+      </c>
+      <c r="H40">
+        <v>0.1170359563649693</v>
+      </c>
+      <c r="I40">
+        <v>-0.06595081711076392</v>
+      </c>
+      <c r="J40">
+        <v>0.2438245474232712</v>
+      </c>
+      <c r="K40">
+        <v>-0.07827663162386581</v>
+      </c>
+      <c r="L40">
+        <v>-0.03971256913882772</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.06269058911630614</v>
+        <v>-0.04733473445116423</v>
       </c>
       <c r="C41">
-        <v>0.03562440158081982</v>
+        <v>0.03171522625631638</v>
       </c>
       <c r="D41">
-        <v>-0.02473726986098257</v>
+        <v>-0.01402442604768215</v>
       </c>
       <c r="E41">
-        <v>-0.005737903928209854</v>
+        <v>0.005472505052413495</v>
       </c>
       <c r="F41">
-        <v>0.001063966423837298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01643494940531525</v>
+      </c>
+      <c r="G41">
+        <v>-0.02556658709147307</v>
+      </c>
+      <c r="H41">
+        <v>-0.02814862728497</v>
+      </c>
+      <c r="I41">
+        <v>-0.006423487385878365</v>
+      </c>
+      <c r="J41">
+        <v>0.03447836745937739</v>
+      </c>
+      <c r="K41">
+        <v>-0.04890449512873472</v>
+      </c>
+      <c r="L41">
+        <v>-0.02207972456322783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2293,104 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.06459545466314656</v>
+        <v>-0.05998165537232573</v>
       </c>
       <c r="C43">
-        <v>0.02048956127783249</v>
+        <v>0.04031744681626584</v>
       </c>
       <c r="D43">
-        <v>-0.02170503076635827</v>
+        <v>-0.004001817354510507</v>
       </c>
       <c r="E43">
-        <v>0.01934394007379817</v>
+        <v>-0.01930179692439309</v>
       </c>
       <c r="F43">
-        <v>-0.00306945893247248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01206177356911186</v>
+      </c>
+      <c r="G43">
+        <v>-0.01587138376437453</v>
+      </c>
+      <c r="H43">
+        <v>-0.05290808600170375</v>
+      </c>
+      <c r="I43">
+        <v>-0.01672750704852047</v>
+      </c>
+      <c r="J43">
+        <v>0.01995321765289066</v>
+      </c>
+      <c r="K43">
+        <v>-0.01980312499476441</v>
+      </c>
+      <c r="L43">
+        <v>-0.02298469717053205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.08404110544306341</v>
+        <v>-0.08867551509273254</v>
       </c>
       <c r="C44">
-        <v>0.03776007108814882</v>
+        <v>0.05233373913104279</v>
       </c>
       <c r="D44">
-        <v>0.005178562859846429</v>
+        <v>0.02506677051939045</v>
       </c>
       <c r="E44">
-        <v>0.08985365324204223</v>
+        <v>-0.1050053172877333</v>
       </c>
       <c r="F44">
-        <v>0.1185925854514407</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.07112635521079198</v>
+      </c>
+      <c r="G44">
+        <v>-0.08746754815384085</v>
+      </c>
+      <c r="H44">
+        <v>-0.03408361598758185</v>
+      </c>
+      <c r="I44">
+        <v>-0.1224068028200978</v>
+      </c>
+      <c r="J44">
+        <v>0.09095526261621892</v>
+      </c>
+      <c r="K44">
+        <v>-0.01087014228369953</v>
+      </c>
+      <c r="L44">
+        <v>-0.03571666432694789</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2407,256 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.03020331129403557</v>
+        <v>-0.04518763285222063</v>
       </c>
       <c r="C46">
-        <v>0.02757900934524162</v>
+        <v>0.03042821290485127</v>
       </c>
       <c r="D46">
-        <v>-0.01601169521418029</v>
+        <v>-0.005847617521818914</v>
       </c>
       <c r="E46">
-        <v>0.01626996987500051</v>
+        <v>-0.02429615063939945</v>
       </c>
       <c r="F46">
-        <v>0.03924177813862324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04350679024795966</v>
+      </c>
+      <c r="G46">
+        <v>-0.01125969756547386</v>
+      </c>
+      <c r="H46">
+        <v>-0.0199511063084572</v>
+      </c>
+      <c r="I46">
+        <v>-0.03727153912970864</v>
+      </c>
+      <c r="J46">
+        <v>-0.02392657342216514</v>
+      </c>
+      <c r="K46">
+        <v>-0.04930478395470895</v>
+      </c>
+      <c r="L46">
+        <v>-0.05455644586515667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.03785341099864813</v>
+        <v>-0.04697048319688786</v>
       </c>
       <c r="C47">
-        <v>-0.005641276207053509</v>
+        <v>0.01411471173812723</v>
       </c>
       <c r="D47">
-        <v>-0.007668666757573246</v>
+        <v>0.0148399435978538</v>
       </c>
       <c r="E47">
-        <v>0.01237997723186353</v>
+        <v>-0.002978314920801967</v>
       </c>
       <c r="F47">
-        <v>0.07690532680564448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.04199283959319629</v>
+      </c>
+      <c r="G47">
+        <v>0.001306033031163954</v>
+      </c>
+      <c r="H47">
+        <v>-0.0216189887933654</v>
+      </c>
+      <c r="I47">
+        <v>-0.03370558043685136</v>
+      </c>
+      <c r="J47">
+        <v>-0.02225779519367082</v>
+      </c>
+      <c r="K47">
+        <v>0.0001942690599980217</v>
+      </c>
+      <c r="L47">
+        <v>-0.0009337480828153471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.04859940033678685</v>
+        <v>-0.04493951577332875</v>
       </c>
       <c r="C48">
-        <v>0.01472407972152377</v>
+        <v>0.01555891321294599</v>
       </c>
       <c r="D48">
-        <v>-0.02743042444793117</v>
+        <v>0.01521668548437052</v>
       </c>
       <c r="E48">
-        <v>0.02192665711978999</v>
+        <v>-0.005992399109666849</v>
       </c>
       <c r="F48">
-        <v>0.0491631514237755</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.04097503351857947</v>
+      </c>
+      <c r="G48">
+        <v>-0.01661595487400874</v>
+      </c>
+      <c r="H48">
+        <v>0.005601710365845116</v>
+      </c>
+      <c r="I48">
+        <v>-0.05860329002130236</v>
+      </c>
+      <c r="J48">
+        <v>-0.004157758551271669</v>
+      </c>
+      <c r="K48">
+        <v>-0.03759022441245616</v>
+      </c>
+      <c r="L48">
+        <v>0.02930862378429491</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.1467072751065915</v>
+        <v>-0.2062418215135241</v>
       </c>
       <c r="C49">
-        <v>0.02377461702385852</v>
+        <v>0.02775502739303549</v>
       </c>
       <c r="D49">
-        <v>-0.1016801582779578</v>
+        <v>-0.189229343141665</v>
       </c>
       <c r="E49">
-        <v>0.02615088932073089</v>
+        <v>0.02384236015935291</v>
       </c>
       <c r="F49">
-        <v>-0.1407385074201724</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.02881358325209885</v>
+      </c>
+      <c r="G49">
+        <v>0.1626300238531478</v>
+      </c>
+      <c r="H49">
+        <v>0.1887141261564446</v>
+      </c>
+      <c r="I49">
+        <v>0.1254702879290857</v>
+      </c>
+      <c r="J49">
+        <v>0.1188054140950418</v>
+      </c>
+      <c r="K49">
+        <v>0.1661741118438759</v>
+      </c>
+      <c r="L49">
+        <v>-0.2179880643733882</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.06420392697437749</v>
+        <v>-0.05416262855682499</v>
       </c>
       <c r="C50">
-        <v>0.01359223780828902</v>
+        <v>0.03524884335867412</v>
       </c>
       <c r="D50">
-        <v>-0.03821546558240713</v>
+        <v>-0.002973653472951714</v>
       </c>
       <c r="E50">
-        <v>0.003142258640635782</v>
+        <v>0.01186226697672775</v>
       </c>
       <c r="F50">
-        <v>0.02823344432742316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.0385970861382994</v>
+      </c>
+      <c r="G50">
+        <v>-0.02137874471270761</v>
+      </c>
+      <c r="H50">
+        <v>-0.05430491642359951</v>
+      </c>
+      <c r="I50">
+        <v>-0.04216904645035049</v>
+      </c>
+      <c r="J50">
+        <v>-0.03405822484757331</v>
+      </c>
+      <c r="K50">
+        <v>-0.03520835141177452</v>
+      </c>
+      <c r="L50">
+        <v>0.04364755226098718</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.038357314980179</v>
+        <v>-0.04029432244876521</v>
       </c>
       <c r="C51">
-        <v>0.004110143222671011</v>
+        <v>0.00536604522982188</v>
       </c>
       <c r="D51">
-        <v>0.008042790121364145</v>
+        <v>0.006186562845439622</v>
       </c>
       <c r="E51">
-        <v>0.0002746568500447361</v>
+        <v>-0.02086073082840654</v>
       </c>
       <c r="F51">
-        <v>0.01093795382445959</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.02796038534887044</v>
+      </c>
+      <c r="G51">
+        <v>0.01388704474564641</v>
+      </c>
+      <c r="H51">
+        <v>0.01632534592521778</v>
+      </c>
+      <c r="I51">
+        <v>0.00855737668759512</v>
+      </c>
+      <c r="J51">
+        <v>0.03732671514121417</v>
+      </c>
+      <c r="K51">
+        <v>0.06573489693221324</v>
+      </c>
+      <c r="L51">
+        <v>-0.0301728783207749</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2673,180 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.1512284691242851</v>
+        <v>-0.1541138620617773</v>
       </c>
       <c r="C53">
-        <v>-0.03674374459504066</v>
+        <v>0.0165264372333363</v>
       </c>
       <c r="D53">
-        <v>-0.0774603708376263</v>
+        <v>-0.07086025716332085</v>
       </c>
       <c r="E53">
-        <v>0.01133027337008278</v>
+        <v>0.02010952383384681</v>
       </c>
       <c r="F53">
-        <v>-0.05391870938240838</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.006537855789400786</v>
+      </c>
+      <c r="G53">
+        <v>0.02545089411493019</v>
+      </c>
+      <c r="H53">
+        <v>-0.2478540280968841</v>
+      </c>
+      <c r="I53">
+        <v>0.06204805649401083</v>
+      </c>
+      <c r="J53">
+        <v>-0.04665238561363603</v>
+      </c>
+      <c r="K53">
+        <v>0.05509576953771365</v>
+      </c>
+      <c r="L53">
+        <v>0.04460884578154409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.06495023368397014</v>
+        <v>-0.06192388451081077</v>
       </c>
       <c r="C54">
-        <v>0.02504211786568258</v>
+        <v>0.01841498547317677</v>
       </c>
       <c r="D54">
-        <v>-0.001129872227072139</v>
+        <v>0.02207266531695632</v>
       </c>
       <c r="E54">
-        <v>0.04188432776587285</v>
+        <v>-0.03406384981036534</v>
       </c>
       <c r="F54">
-        <v>0.05918226095766226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.05136735391656808</v>
+      </c>
+      <c r="G54">
+        <v>-0.07339168427049471</v>
+      </c>
+      <c r="H54">
+        <v>-0.01073511853227817</v>
+      </c>
+      <c r="I54">
+        <v>-0.1159898385039893</v>
+      </c>
+      <c r="J54">
+        <v>-0.01674862420615129</v>
+      </c>
+      <c r="K54">
+        <v>-0.06262186688871781</v>
+      </c>
+      <c r="L54">
+        <v>-0.003772111430292879</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.09418301087295966</v>
+        <v>-0.09510587450144016</v>
       </c>
       <c r="C55">
-        <v>-0.01115113430931029</v>
+        <v>0.02803299898308169</v>
       </c>
       <c r="D55">
-        <v>-0.05686446529872966</v>
+        <v>-0.04990669047141375</v>
       </c>
       <c r="E55">
-        <v>0.02806048708235373</v>
+        <v>-0.006571304179355778</v>
       </c>
       <c r="F55">
-        <v>0.01474876875341608</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01699986691279777</v>
+      </c>
+      <c r="G55">
+        <v>-0.0296855589524411</v>
+      </c>
+      <c r="H55">
+        <v>-0.1800686017008603</v>
+      </c>
+      <c r="I55">
+        <v>-0.005017501920468161</v>
+      </c>
+      <c r="J55">
+        <v>-0.03107899847804337</v>
+      </c>
+      <c r="K55">
+        <v>0.05299538051913837</v>
+      </c>
+      <c r="L55">
+        <v>0.01624900729333379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1482261511795818</v>
+        <v>-0.1498045458261059</v>
       </c>
       <c r="C56">
-        <v>-0.04281708398467928</v>
+        <v>0.03309828260203404</v>
       </c>
       <c r="D56">
-        <v>-0.08260657930504833</v>
+        <v>-0.07031666199666925</v>
       </c>
       <c r="E56">
-        <v>0.04897831813282698</v>
+        <v>-0.003173201631944279</v>
       </c>
       <c r="F56">
-        <v>-0.05918444410362056</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.01747660744619902</v>
+      </c>
+      <c r="G56">
+        <v>0.004471866863067358</v>
+      </c>
+      <c r="H56">
+        <v>-0.2475213692807597</v>
+      </c>
+      <c r="I56">
+        <v>0.07891130177020962</v>
+      </c>
+      <c r="J56">
+        <v>-0.02549005322983609</v>
+      </c>
+      <c r="K56">
+        <v>0.02197991432590415</v>
+      </c>
+      <c r="L56">
+        <v>0.07988887110388183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2863,1472 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.1086391635006966</v>
+        <v>-0.07069541741750709</v>
       </c>
       <c r="C58">
-        <v>0.06182850844947185</v>
+        <v>0.0460505520224804</v>
       </c>
       <c r="D58">
-        <v>0.1748372423219884</v>
+        <v>0.1797111975054499</v>
       </c>
       <c r="E58">
-        <v>0.1044664435179874</v>
+        <v>-0.0898638988697411</v>
       </c>
       <c r="F58">
-        <v>0.2495432831404409</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.0797301802246636</v>
+      </c>
+      <c r="G58">
+        <v>0.1077025189919916</v>
+      </c>
+      <c r="H58">
+        <v>0.174472760496623</v>
+      </c>
+      <c r="I58">
+        <v>-0.5201939445318476</v>
+      </c>
+      <c r="J58">
+        <v>0.05803826236632988</v>
+      </c>
+      <c r="K58">
+        <v>0.2665490753177372</v>
+      </c>
+      <c r="L58">
+        <v>0.3544808426924759</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1561847411070349</v>
+        <v>-0.1867440653092249</v>
       </c>
       <c r="C59">
-        <v>-0.4268016851438693</v>
+        <v>-0.337040473444429</v>
       </c>
       <c r="D59">
-        <v>0.08810093522401703</v>
+        <v>0.03260610217419633</v>
       </c>
       <c r="E59">
-        <v>0.09065666620537736</v>
+        <v>-0.02919670881618395</v>
       </c>
       <c r="F59">
-        <v>0.03961411890096681</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.04014997034365383</v>
+      </c>
+      <c r="G59">
+        <v>-0.02053819989915217</v>
+      </c>
+      <c r="H59">
+        <v>-0.0481882817581516</v>
+      </c>
+      <c r="I59">
+        <v>0.06174052564969513</v>
+      </c>
+      <c r="J59">
+        <v>0.0433845002064407</v>
+      </c>
+      <c r="K59">
+        <v>0.005029323834979816</v>
+      </c>
+      <c r="L59">
+        <v>0.001185263787277097</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.2227073273730193</v>
+        <v>-0.2441717530096819</v>
       </c>
       <c r="C60">
-        <v>-0.01803383562735854</v>
+        <v>0.05521932459344549</v>
       </c>
       <c r="D60">
-        <v>-0.1016708148803328</v>
+        <v>-0.1430736932534853</v>
       </c>
       <c r="E60">
-        <v>0.06601844387987552</v>
+        <v>-0.01086154717510301</v>
       </c>
       <c r="F60">
-        <v>-0.04192401684581714</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.01873114209428865</v>
+      </c>
+      <c r="G60">
+        <v>0.04015388371390768</v>
+      </c>
+      <c r="H60">
+        <v>0.09881684456393039</v>
+      </c>
+      <c r="I60">
+        <v>0.1118342968652432</v>
+      </c>
+      <c r="J60">
+        <v>-0.0966372903960427</v>
+      </c>
+      <c r="K60">
+        <v>0.1311971149306851</v>
+      </c>
+      <c r="L60">
+        <v>-0.03668161317170144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.07989323480036759</v>
+        <v>-0.08744880661055424</v>
       </c>
       <c r="C61">
-        <v>0.02819797651806639</v>
+        <v>0.04018423565529324</v>
       </c>
       <c r="D61">
-        <v>-0.04122443019507462</v>
+        <v>-0.02154819936045229</v>
       </c>
       <c r="E61">
-        <v>0.01023273551084167</v>
+        <v>-0.02068467027748392</v>
       </c>
       <c r="F61">
-        <v>0.004191280331744091</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.032281298024964</v>
+      </c>
+      <c r="G61">
+        <v>-0.06923418662601717</v>
+      </c>
+      <c r="H61">
+        <v>-0.05388895258919157</v>
+      </c>
+      <c r="I61">
+        <v>-0.04252665347564923</v>
+      </c>
+      <c r="J61">
+        <v>0.08677967618314322</v>
+      </c>
+      <c r="K61">
+        <v>-0.004170693025197826</v>
+      </c>
+      <c r="L61">
+        <v>-0.001568500047513918</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.149214553835855</v>
+        <v>-0.1471750078478903</v>
       </c>
       <c r="C62">
-        <v>-0.01987812444862291</v>
+        <v>0.0416660635637433</v>
       </c>
       <c r="D62">
-        <v>-0.05171594899807152</v>
+        <v>-0.0634009658591973</v>
       </c>
       <c r="E62">
-        <v>-0.01035813836968996</v>
+        <v>0.03980385482847916</v>
       </c>
       <c r="F62">
-        <v>-0.09427645715462589</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.01585966768185784</v>
+      </c>
+      <c r="G62">
+        <v>-0.02056509861612887</v>
+      </c>
+      <c r="H62">
+        <v>-0.2315199578718996</v>
+      </c>
+      <c r="I62">
+        <v>0.06650585254546641</v>
+      </c>
+      <c r="J62">
+        <v>-0.08463042067149722</v>
+      </c>
+      <c r="K62">
+        <v>0.029208526725144</v>
+      </c>
+      <c r="L62">
+        <v>0.05187965349225841</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.0602086675584405</v>
+        <v>-0.05196186362932393</v>
       </c>
       <c r="C63">
-        <v>0.03505250768978199</v>
+        <v>0.0281924413953508</v>
       </c>
       <c r="D63">
-        <v>-0.02337257646558911</v>
+        <v>0.002579751073388981</v>
       </c>
       <c r="E63">
-        <v>0.01237705922324314</v>
+        <v>0.004699926537755266</v>
       </c>
       <c r="F63">
-        <v>0.005394685665134583</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02767305554229364</v>
+      </c>
+      <c r="G63">
+        <v>-0.05084597282895146</v>
+      </c>
+      <c r="H63">
+        <v>-0.01609072023019567</v>
+      </c>
+      <c r="I63">
+        <v>-0.05733074353667062</v>
+      </c>
+      <c r="J63">
+        <v>-0.02729453955326569</v>
+      </c>
+      <c r="K63">
+        <v>-0.03368340348140407</v>
+      </c>
+      <c r="L63">
+        <v>0.01060016356192081</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.09596948803698463</v>
+        <v>-0.1037847615124541</v>
       </c>
       <c r="C64">
-        <v>-0.01098140142619155</v>
+        <v>0.01623869749389976</v>
       </c>
       <c r="D64">
-        <v>-0.05915083526665433</v>
+        <v>-0.03872695644787424</v>
       </c>
       <c r="E64">
-        <v>0.03512790910270188</v>
+        <v>-0.0318848294281114</v>
       </c>
       <c r="F64">
-        <v>0.047540131026975</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.07566019783866071</v>
+      </c>
+      <c r="G64">
+        <v>-0.05126294735410764</v>
+      </c>
+      <c r="H64">
+        <v>0.02702462975955132</v>
+      </c>
+      <c r="I64">
+        <v>-0.03284614995692665</v>
+      </c>
+      <c r="J64">
+        <v>0.05441623517896791</v>
+      </c>
+      <c r="K64">
+        <v>-0.03536971619022714</v>
+      </c>
+      <c r="L64">
+        <v>-0.004081260729483103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.1172677489303087</v>
+        <v>-0.129299846742769</v>
       </c>
       <c r="C65">
-        <v>0.01765075654322231</v>
+        <v>0.0208218203256829</v>
       </c>
       <c r="D65">
-        <v>-0.04398198595518272</v>
+        <v>-0.05691394390640361</v>
       </c>
       <c r="E65">
-        <v>0.05032798148198176</v>
+        <v>0.009624852911558361</v>
       </c>
       <c r="F65">
-        <v>0.09246886998881498</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.05788628947735992</v>
+      </c>
+      <c r="G65">
+        <v>-0.08706362773749378</v>
+      </c>
+      <c r="H65">
+        <v>0.1783092844614744</v>
+      </c>
+      <c r="I65">
+        <v>-0.1899923651876659</v>
+      </c>
+      <c r="J65">
+        <v>-0.6489654122369646</v>
+      </c>
+      <c r="K65">
+        <v>0.06884505174300266</v>
+      </c>
+      <c r="L65">
+        <v>0.02479197116757289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.157515399138197</v>
+        <v>-0.139399935360347</v>
       </c>
       <c r="C66">
-        <v>0.08705391513667725</v>
+        <v>0.1042739447422505</v>
       </c>
       <c r="D66">
-        <v>-0.08524043231680666</v>
+        <v>-0.02691066495560146</v>
       </c>
       <c r="E66">
-        <v>0.02563559633170638</v>
+        <v>-0.004312737825613438</v>
       </c>
       <c r="F66">
-        <v>-0.03471502058395957</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.04197511283057358</v>
+      </c>
+      <c r="G66">
+        <v>-0.09662870503842123</v>
+      </c>
+      <c r="H66">
+        <v>-0.02052461926168009</v>
+      </c>
+      <c r="I66">
+        <v>-0.06881131767113668</v>
+      </c>
+      <c r="J66">
+        <v>0.2490764155236048</v>
+      </c>
+      <c r="K66">
+        <v>-0.05491181592579122</v>
+      </c>
+      <c r="L66">
+        <v>-0.009412560261870108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.09866043265385374</v>
+        <v>-0.09715425119181531</v>
       </c>
       <c r="C67">
-        <v>0.02346397204948154</v>
+        <v>0.05217144803085813</v>
       </c>
       <c r="D67">
-        <v>0.009737144965170853</v>
+        <v>0.0107960775206037</v>
       </c>
       <c r="E67">
-        <v>0.0106305029648645</v>
+        <v>-0.04411714976942483</v>
       </c>
       <c r="F67">
-        <v>0.01322650818156174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.02068347193877388</v>
+      </c>
+      <c r="G67">
+        <v>-0.01344180861177615</v>
+      </c>
+      <c r="H67">
+        <v>-0.01283718765830689</v>
+      </c>
+      <c r="I67">
+        <v>0.1506844556895096</v>
+      </c>
+      <c r="J67">
+        <v>0.04988894621126251</v>
+      </c>
+      <c r="K67">
+        <v>-0.06280725220629058</v>
+      </c>
+      <c r="L67">
+        <v>-0.05584745729266768</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.05504754694440002</v>
+        <v>-0.09092497643730135</v>
       </c>
       <c r="C68">
-        <v>-0.2553968635704235</v>
+        <v>-0.2766230417899733</v>
       </c>
       <c r="D68">
-        <v>0.05894070359093274</v>
+        <v>0.04677242340119211</v>
       </c>
       <c r="E68">
-        <v>0.04103036994663189</v>
+        <v>-0.02453170121062045</v>
       </c>
       <c r="F68">
-        <v>0.0453196481996499</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02161120368273212</v>
+      </c>
+      <c r="G68">
+        <v>0.01191343246461094</v>
+      </c>
+      <c r="H68">
+        <v>-0.02227025629027088</v>
+      </c>
+      <c r="I68">
+        <v>-0.04564275198168916</v>
+      </c>
+      <c r="J68">
+        <v>-0.05063126851417661</v>
+      </c>
+      <c r="K68">
+        <v>-0.01931213636159524</v>
+      </c>
+      <c r="L68">
+        <v>0.0396398762488853</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.06598225547381713</v>
+        <v>-0.05561883870771041</v>
       </c>
       <c r="C69">
-        <v>0.01609065399945891</v>
+        <v>0.02100832744624283</v>
       </c>
       <c r="D69">
-        <v>-0.001303849560029537</v>
+        <v>0.01437230502252141</v>
       </c>
       <c r="E69">
-        <v>0.01589179320160537</v>
+        <v>0.004167344885749266</v>
       </c>
       <c r="F69">
-        <v>0.008317999261785142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.004090834728244668</v>
+      </c>
+      <c r="G69">
+        <v>-0.02161820821337555</v>
+      </c>
+      <c r="H69">
+        <v>-0.03598855534120707</v>
+      </c>
+      <c r="I69">
+        <v>-0.01067942628720956</v>
+      </c>
+      <c r="J69">
+        <v>0.01080674315063023</v>
+      </c>
+      <c r="K69">
+        <v>0.004899201504155272</v>
+      </c>
+      <c r="L69">
+        <v>0.004094255672772398</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.01878413133919519</v>
+        <v>-0.04240976799776624</v>
       </c>
       <c r="C70">
-        <v>-0.006848307588314966</v>
+        <v>0.01183617945637996</v>
       </c>
       <c r="D70">
-        <v>-0.001719392733741995</v>
+        <v>-0.02821927697095132</v>
       </c>
       <c r="E70">
-        <v>-0.01339523088638201</v>
+        <v>0.008039096115233017</v>
       </c>
       <c r="F70">
-        <v>-0.006793389328059416</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>-0.04367907199613202</v>
+      </c>
+      <c r="G70">
+        <v>-0.01097227650092199</v>
+      </c>
+      <c r="H70">
+        <v>0.02760033378106468</v>
+      </c>
+      <c r="I70">
+        <v>0.03047915902659011</v>
+      </c>
+      <c r="J70">
+        <v>0.03082048572841486</v>
+      </c>
+      <c r="K70">
+        <v>-0.1428274207517185</v>
+      </c>
+      <c r="L70">
+        <v>-0.08140394295360717</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.05634947273648097</v>
+        <v>-0.1021983121236839</v>
       </c>
       <c r="C71">
-        <v>-0.2713215938709819</v>
+        <v>-0.2894258965501111</v>
       </c>
       <c r="D71">
-        <v>0.05886812303015376</v>
+        <v>0.03168216291431798</v>
       </c>
       <c r="E71">
-        <v>0.07339666322791193</v>
+        <v>-0.04343446792064159</v>
       </c>
       <c r="F71">
-        <v>0.03101993007596609</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02426060485068244</v>
+      </c>
+      <c r="G71">
+        <v>-0.0005101158879670078</v>
+      </c>
+      <c r="H71">
+        <v>-0.01478562662189127</v>
+      </c>
+      <c r="I71">
+        <v>-0.02344043932775412</v>
+      </c>
+      <c r="J71">
+        <v>-0.01525707634696152</v>
+      </c>
+      <c r="K71">
+        <v>-0.003634786593985992</v>
+      </c>
+      <c r="L71">
+        <v>-0.007152077728091935</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1448215918308682</v>
+        <v>-0.1365936897863351</v>
       </c>
       <c r="C72">
-        <v>-0.05052168579611234</v>
+        <v>-0.0003725458584112004</v>
       </c>
       <c r="D72">
-        <v>-0.04045953660311723</v>
+        <v>0.01596913409545153</v>
       </c>
       <c r="E72">
-        <v>-0.2385900650047577</v>
+        <v>0.1747569591269135</v>
       </c>
       <c r="F72">
-        <v>0.01637790537263384</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.004514250585042846</v>
+      </c>
+      <c r="G72">
+        <v>-0.1229005263028208</v>
+      </c>
+      <c r="H72">
+        <v>-0.02383013695480801</v>
+      </c>
+      <c r="I72">
+        <v>0.02376683117734183</v>
+      </c>
+      <c r="J72">
+        <v>-0.1091936420969695</v>
+      </c>
+      <c r="K72">
+        <v>0.1240709062552621</v>
+      </c>
+      <c r="L72">
+        <v>-0.09158923726591017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2501059000666767</v>
+        <v>-0.2409045924224359</v>
       </c>
       <c r="C73">
-        <v>0.05362510464444974</v>
+        <v>0.1141013475837601</v>
       </c>
       <c r="D73">
-        <v>-0.1422924362004456</v>
+        <v>-0.2408451175780373</v>
       </c>
       <c r="E73">
-        <v>0.09951670487769659</v>
+        <v>-0.03616625684659389</v>
       </c>
       <c r="F73">
-        <v>-0.1560157966699645</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1536602869398084</v>
+      </c>
+      <c r="G73">
+        <v>0.2600187163676709</v>
+      </c>
+      <c r="H73">
+        <v>0.2848287374517856</v>
+      </c>
+      <c r="I73">
+        <v>0.1275103284587697</v>
+      </c>
+      <c r="J73">
+        <v>0.1839062483257045</v>
+      </c>
+      <c r="K73">
+        <v>0.4770975971350061</v>
+      </c>
+      <c r="L73">
+        <v>0.1207075665900386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.08538126754663379</v>
+        <v>-0.09146223573801644</v>
       </c>
       <c r="C74">
-        <v>-0.02140661590988626</v>
+        <v>0.03496020351149395</v>
       </c>
       <c r="D74">
-        <v>-0.05907256684018571</v>
+        <v>-0.04446744813650286</v>
       </c>
       <c r="E74">
-        <v>0.01244508666263393</v>
+        <v>0.01427173800360582</v>
       </c>
       <c r="F74">
-        <v>0.01479826146718406</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.02605919215507819</v>
+      </c>
+      <c r="G74">
+        <v>0.02415310363890995</v>
+      </c>
+      <c r="H74">
+        <v>-0.1429803590788057</v>
+      </c>
+      <c r="I74">
+        <v>0.005424185738795655</v>
+      </c>
+      <c r="J74">
+        <v>0.01165276423636671</v>
+      </c>
+      <c r="K74">
+        <v>0.06403997481145737</v>
+      </c>
+      <c r="L74">
+        <v>0.03938012190947874</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.1202519267102687</v>
+        <v>-0.1029019501483533</v>
       </c>
       <c r="C75">
-        <v>-0.002972074897569359</v>
+        <v>0.03363955089773892</v>
       </c>
       <c r="D75">
-        <v>-0.001572641612681039</v>
+        <v>0.01060273386316776</v>
       </c>
       <c r="E75">
-        <v>0.02336140806153295</v>
+        <v>0.00442271222408435</v>
       </c>
       <c r="F75">
-        <v>-0.02585100591311035</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03489276186397416</v>
+      </c>
+      <c r="G75">
+        <v>0.01515550223218719</v>
+      </c>
+      <c r="H75">
+        <v>-0.1342334806961114</v>
+      </c>
+      <c r="I75">
+        <v>0.01953485255350394</v>
+      </c>
+      <c r="J75">
+        <v>-0.0428701918990655</v>
+      </c>
+      <c r="K75">
+        <v>0.01971981543586653</v>
+      </c>
+      <c r="L75">
+        <v>0.04726672563315391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1363491582959179</v>
+        <v>-0.1206217600306083</v>
       </c>
       <c r="C76">
-        <v>-0.01029122085101109</v>
+        <v>0.05509361384529128</v>
       </c>
       <c r="D76">
-        <v>-0.06805361832692336</v>
+        <v>-0.05462140367882215</v>
       </c>
       <c r="E76">
-        <v>0.02036625568070464</v>
+        <v>-0.00283839484640817</v>
       </c>
       <c r="F76">
-        <v>-0.002977634070047477</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.01842172541267274</v>
+      </c>
+      <c r="G76">
+        <v>0.0133881899925501</v>
+      </c>
+      <c r="H76">
+        <v>-0.2574575893839561</v>
+      </c>
+      <c r="I76">
+        <v>0.04266883875123603</v>
+      </c>
+      <c r="J76">
+        <v>-0.04789578585976226</v>
+      </c>
+      <c r="K76">
+        <v>0.0416657059430233</v>
+      </c>
+      <c r="L76">
+        <v>0.1328346460444744</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.1246428301179227</v>
+        <v>-0.08797815542494655</v>
       </c>
       <c r="C77">
-        <v>0.0415667869225202</v>
+        <v>0.02505938833128118</v>
       </c>
       <c r="D77">
-        <v>0.1124229857900366</v>
+        <v>0.1514875026197997</v>
       </c>
       <c r="E77">
-        <v>0.01496046491679757</v>
+        <v>-0.1207166226471814</v>
       </c>
       <c r="F77">
-        <v>0.2599504695495113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.05696506943203213</v>
+      </c>
+      <c r="G77">
+        <v>-0.6903185605128942</v>
+      </c>
+      <c r="H77">
+        <v>0.2445705450158445</v>
+      </c>
+      <c r="I77">
+        <v>0.4338411359983466</v>
+      </c>
+      <c r="J77">
+        <v>0.02147163269447345</v>
+      </c>
+      <c r="K77">
+        <v>0.08470209502784279</v>
+      </c>
+      <c r="L77">
+        <v>0.2273000758361564</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.1236267160196676</v>
+        <v>-0.159100309014213</v>
       </c>
       <c r="C78">
-        <v>0.06517779883914609</v>
+        <v>0.08648003763297658</v>
       </c>
       <c r="D78">
-        <v>-0.04845885089622473</v>
+        <v>0.03311959395642952</v>
       </c>
       <c r="E78">
-        <v>0.02265889875684717</v>
+        <v>-0.08389139991482744</v>
       </c>
       <c r="F78">
-        <v>0.0890941628742494</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.1488158958357579</v>
+      </c>
+      <c r="G78">
+        <v>-0.0284906012932705</v>
+      </c>
+      <c r="H78">
+        <v>0.08429400823190254</v>
+      </c>
+      <c r="I78">
+        <v>-0.03625034161523299</v>
+      </c>
+      <c r="J78">
+        <v>-0.010167356302206</v>
+      </c>
+      <c r="K78">
+        <v>0.05588012771344612</v>
+      </c>
+      <c r="L78">
+        <v>-0.5403146059011792</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1442699529586804</v>
+        <v>-0.1404288445795298</v>
       </c>
       <c r="C79">
-        <v>0.007167409083638147</v>
+        <v>0.04639806819998413</v>
       </c>
       <c r="D79">
-        <v>-0.07056257893601985</v>
+        <v>-0.04628472956705928</v>
       </c>
       <c r="E79">
-        <v>0.01062690754634771</v>
+        <v>0.004436301087988591</v>
       </c>
       <c r="F79">
-        <v>-0.06610270777103162</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.01613795915610562</v>
+      </c>
+      <c r="G79">
+        <v>-0.0217252180092828</v>
+      </c>
+      <c r="H79">
+        <v>-0.1941696457782643</v>
+      </c>
+      <c r="I79">
+        <v>0.06186588791729378</v>
+      </c>
+      <c r="J79">
+        <v>-0.06588824602503178</v>
+      </c>
+      <c r="K79">
+        <v>0.02811778136567462</v>
+      </c>
+      <c r="L79">
+        <v>0.04603411429704932</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.0358833365625275</v>
+        <v>-0.04433491485834205</v>
       </c>
       <c r="C80">
-        <v>0.02072553257778168</v>
+        <v>0.01106788624349253</v>
       </c>
       <c r="D80">
-        <v>-0.01942658514292348</v>
+        <v>-0.05822522332330755</v>
       </c>
       <c r="E80">
-        <v>0.001246198809458925</v>
+        <v>0.01390122066711717</v>
       </c>
       <c r="F80">
-        <v>0.008102190436102635</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.01875267138901316</v>
+      </c>
+      <c r="G80">
+        <v>-0.00316816214233815</v>
+      </c>
+      <c r="H80">
+        <v>0.03446784518359838</v>
+      </c>
+      <c r="I80">
+        <v>-0.07153618548274809</v>
+      </c>
+      <c r="J80">
+        <v>0.03811437135537959</v>
+      </c>
+      <c r="K80">
+        <v>-0.02557438075518183</v>
+      </c>
+      <c r="L80">
+        <v>-0.07511950111728602</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1357275786469089</v>
+        <v>-0.1343135609205538</v>
       </c>
       <c r="C81">
-        <v>0.005167521487030357</v>
+        <v>0.02177484866683043</v>
       </c>
       <c r="D81">
-        <v>-0.06452067375281675</v>
+        <v>-0.03650155431452491</v>
       </c>
       <c r="E81">
-        <v>0.02971845232043275</v>
+        <v>0.001958669275458639</v>
       </c>
       <c r="F81">
-        <v>-0.03893134380472614</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.01994672114439543</v>
+      </c>
+      <c r="G81">
+        <v>-0.002178320952397961</v>
+      </c>
+      <c r="H81">
+        <v>-0.1389904835071845</v>
+      </c>
+      <c r="I81">
+        <v>0.01903714063302674</v>
+      </c>
+      <c r="J81">
+        <v>0.03930067114372</v>
+      </c>
+      <c r="K81">
+        <v>-0.01475617468536617</v>
+      </c>
+      <c r="L81">
+        <v>0.03077814327935389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.1195314970183172</v>
+        <v>-0.1222140502547597</v>
       </c>
       <c r="C82">
-        <v>0.0172046847997334</v>
+        <v>0.03625087861886254</v>
       </c>
       <c r="D82">
-        <v>-0.03878459862876416</v>
+        <v>-0.04021717648404591</v>
       </c>
       <c r="E82">
-        <v>0.03726805682800924</v>
+        <v>0.01073118526912291</v>
       </c>
       <c r="F82">
-        <v>-0.06887621358236094</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.007895992485224029</v>
+      </c>
+      <c r="G82">
+        <v>0.02123365254457587</v>
+      </c>
+      <c r="H82">
+        <v>-0.2844278947369565</v>
+      </c>
+      <c r="I82">
+        <v>0.04465060660002217</v>
+      </c>
+      <c r="J82">
+        <v>0.01920292445931183</v>
+      </c>
+      <c r="K82">
+        <v>-0.005747013937001547</v>
+      </c>
+      <c r="L82">
+        <v>0.08157314805800912</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.05446666601719734</v>
+        <v>-0.07550724845696921</v>
       </c>
       <c r="C83">
-        <v>0.02484678402966837</v>
+        <v>0.03704538500910251</v>
       </c>
       <c r="D83">
-        <v>0.06991045011480573</v>
+        <v>0.01178997942671771</v>
       </c>
       <c r="E83">
-        <v>0.008190936653265963</v>
+        <v>-0.02087216832624566</v>
       </c>
       <c r="F83">
-        <v>-0.07611309359320653</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.08397735974423808</v>
+      </c>
+      <c r="G83">
+        <v>0.03171337562425194</v>
+      </c>
+      <c r="H83">
+        <v>0.05514047661672906</v>
+      </c>
+      <c r="I83">
+        <v>-0.07436601411995919</v>
+      </c>
+      <c r="J83">
+        <v>0.03510305201248906</v>
+      </c>
+      <c r="K83">
+        <v>-0.05954876953355496</v>
+      </c>
+      <c r="L83">
+        <v>-0.07855181874800414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.04792750666449119</v>
+        <v>-0.03057602629351276</v>
       </c>
       <c r="C84">
-        <v>0.008077912353458122</v>
+        <v>0.04537976812690252</v>
       </c>
       <c r="D84">
-        <v>-0.04909280204499662</v>
+        <v>0.01002786763333592</v>
       </c>
       <c r="E84">
-        <v>-0.02132551414279589</v>
+        <v>0.03779556894835606</v>
       </c>
       <c r="F84">
-        <v>-0.002656831876570306</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.05022992933852943</v>
+      </c>
+      <c r="G84">
+        <v>0.04085464394357317</v>
+      </c>
+      <c r="H84">
+        <v>-0.01880665955969206</v>
+      </c>
+      <c r="I84">
+        <v>-0.09197949698762586</v>
+      </c>
+      <c r="J84">
+        <v>0.03678143833831995</v>
+      </c>
+      <c r="K84">
+        <v>-0.0876045288257388</v>
+      </c>
+      <c r="L84">
+        <v>-0.03772423801620588</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.1075811063293059</v>
+        <v>-0.1185174637141009</v>
       </c>
       <c r="C85">
-        <v>0.02934569192856481</v>
+        <v>0.03754992937014008</v>
       </c>
       <c r="D85">
-        <v>-0.03115437196387893</v>
+        <v>-0.03784850734644458</v>
       </c>
       <c r="E85">
-        <v>0.06030060793983061</v>
+        <v>-0.03891311417346971</v>
       </c>
       <c r="F85">
-        <v>-0.005147295997004182</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.007357598520002401</v>
+      </c>
+      <c r="G85">
+        <v>-0.0110180922036297</v>
+      </c>
+      <c r="H85">
+        <v>-0.1987111822631011</v>
+      </c>
+      <c r="I85">
+        <v>0.03370015900364801</v>
+      </c>
+      <c r="J85">
+        <v>-0.05686846533313808</v>
+      </c>
+      <c r="K85">
+        <v>0.02910618553047388</v>
+      </c>
+      <c r="L85">
+        <v>0.03179207627511701</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.07404554350861435</v>
+        <v>-0.07019545000450379</v>
       </c>
       <c r="C86">
-        <v>0.07552054577593427</v>
+        <v>0.03904865919168082</v>
       </c>
       <c r="D86">
-        <v>-0.03603263384564483</v>
+        <v>0.01656950294513789</v>
       </c>
       <c r="E86">
-        <v>0.008017344348422828</v>
+        <v>-0.02669427677294038</v>
       </c>
       <c r="F86">
-        <v>0.02326384741117713</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03636381860466556</v>
+      </c>
+      <c r="G86">
+        <v>0.01434522613417156</v>
+      </c>
+      <c r="H86">
+        <v>0.04581834232239584</v>
+      </c>
+      <c r="I86">
+        <v>0.01804042210852106</v>
+      </c>
+      <c r="J86">
+        <v>0.02166624468032273</v>
+      </c>
+      <c r="K86">
+        <v>-0.0820846314769272</v>
+      </c>
+      <c r="L86">
+        <v>-0.4471242420438125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.1199264106304072</v>
+        <v>-0.1236385556126068</v>
       </c>
       <c r="C87">
-        <v>0.05879833936549137</v>
+        <v>0.06933120427533636</v>
       </c>
       <c r="D87">
-        <v>-0.05044766944275371</v>
+        <v>0.01000292085030949</v>
       </c>
       <c r="E87">
-        <v>0.0395594414934719</v>
+        <v>-0.02805557661400381</v>
       </c>
       <c r="F87">
-        <v>0.1644479850764148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.08548561233548245</v>
+      </c>
+      <c r="G87">
+        <v>-0.2037716932806125</v>
+      </c>
+      <c r="H87">
+        <v>0.1024181893808432</v>
+      </c>
+      <c r="I87">
+        <v>0.05737859980339034</v>
+      </c>
+      <c r="J87">
+        <v>0.03448303853215392</v>
+      </c>
+      <c r="K87">
+        <v>-0.01367806898272757</v>
+      </c>
+      <c r="L87">
+        <v>0.05598283613292843</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.05759320506461308</v>
+        <v>-0.06426715611826203</v>
       </c>
       <c r="C88">
-        <v>0.02495846809946311</v>
+        <v>0.04097050373785142</v>
       </c>
       <c r="D88">
-        <v>-0.03052241186380438</v>
+        <v>-0.03841212238195318</v>
       </c>
       <c r="E88">
-        <v>0.01196634510478096</v>
+        <v>-0.005505337238850624</v>
       </c>
       <c r="F88">
-        <v>0.00757915723258447</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.009958436221502071</v>
+      </c>
+      <c r="G88">
+        <v>-0.02245078102807258</v>
+      </c>
+      <c r="H88">
+        <v>-0.01142376029172232</v>
+      </c>
+      <c r="I88">
+        <v>-0.04002979495425794</v>
+      </c>
+      <c r="J88">
+        <v>0.04178756062880482</v>
+      </c>
+      <c r="K88">
+        <v>-0.03169666349958029</v>
+      </c>
+      <c r="L88">
+        <v>-0.01756530285582159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.09172322996998768</v>
+        <v>-0.1673065337302262</v>
       </c>
       <c r="C89">
-        <v>-0.3260531524868855</v>
+        <v>-0.3832985143613798</v>
       </c>
       <c r="D89">
-        <v>0.08701291106384701</v>
+        <v>0.02080667178393446</v>
       </c>
       <c r="E89">
-        <v>0.1110119551629924</v>
+        <v>-0.09614015160362985</v>
       </c>
       <c r="F89">
-        <v>0.05723027851876993</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.0004904516998046633</v>
+      </c>
+      <c r="G89">
+        <v>0.03111551950743767</v>
+      </c>
+      <c r="H89">
+        <v>0.03161981317354096</v>
+      </c>
+      <c r="I89">
+        <v>-0.0647558901443655</v>
+      </c>
+      <c r="J89">
+        <v>0.0997982763477934</v>
+      </c>
+      <c r="K89">
+        <v>0.01893647733598506</v>
+      </c>
+      <c r="L89">
+        <v>-0.0006432871425663353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.07954811194928994</v>
+        <v>-0.1150379494904305</v>
       </c>
       <c r="C90">
-        <v>-0.2759668089013778</v>
+        <v>-0.275552017168859</v>
       </c>
       <c r="D90">
-        <v>0.08806022200855906</v>
+        <v>0.03759544362346399</v>
       </c>
       <c r="E90">
-        <v>0.05085914174914553</v>
+        <v>-0.03774990608970372</v>
       </c>
       <c r="F90">
-        <v>0.0508264597906473</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01679718511176353</v>
+      </c>
+      <c r="G90">
+        <v>-0.02575040170194505</v>
+      </c>
+      <c r="H90">
+        <v>0.03590684074706688</v>
+      </c>
+      <c r="I90">
+        <v>-0.04312963491282445</v>
+      </c>
+      <c r="J90">
+        <v>0.05437097075116707</v>
+      </c>
+      <c r="K90">
+        <v>0.01298246705767169</v>
+      </c>
+      <c r="L90">
+        <v>0.002428434569006931</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.09771036474995894</v>
+        <v>-0.08525097602955067</v>
       </c>
       <c r="C91">
-        <v>0.006592801474763279</v>
+        <v>0.03906237529396445</v>
       </c>
       <c r="D91">
-        <v>-0.02845076868524964</v>
+        <v>-0.005180521186164366</v>
       </c>
       <c r="E91">
-        <v>0.01089425453503735</v>
+        <v>0.0005470744330923104</v>
       </c>
       <c r="F91">
-        <v>0.000818991614481895</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.007039901632291044</v>
+      </c>
+      <c r="G91">
+        <v>0.02697417727313273</v>
+      </c>
+      <c r="H91">
+        <v>-0.09168429091424962</v>
+      </c>
+      <c r="I91">
+        <v>0.01566384016390806</v>
+      </c>
+      <c r="J91">
+        <v>-0.02428974027442139</v>
+      </c>
+      <c r="K91">
+        <v>0.03627423808625017</v>
+      </c>
+      <c r="L91">
+        <v>0.07557950001551957</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.06379106035208559</v>
+        <v>-0.1177239537416467</v>
       </c>
       <c r="C92">
-        <v>-0.3299747955140899</v>
+        <v>-0.3303652639761214</v>
       </c>
       <c r="D92">
-        <v>0.05269164222292357</v>
+        <v>0.02447342881851943</v>
       </c>
       <c r="E92">
-        <v>0.08750223770486414</v>
+        <v>-0.04723267455046429</v>
       </c>
       <c r="F92">
-        <v>0.02081878984444119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.03069482990718983</v>
+      </c>
+      <c r="G92">
+        <v>0.02653736852003936</v>
+      </c>
+      <c r="H92">
+        <v>-0.02334345285299475</v>
+      </c>
+      <c r="I92">
+        <v>-0.01761444321687522</v>
+      </c>
+      <c r="J92">
+        <v>0.01951179975916655</v>
+      </c>
+      <c r="K92">
+        <v>-0.005658177247279336</v>
+      </c>
+      <c r="L92">
+        <v>-0.02086108633806681</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.06762106286238824</v>
+        <v>-0.1207619112319194</v>
       </c>
       <c r="C93">
-        <v>-0.27655584116492</v>
+        <v>-0.3015914160299981</v>
       </c>
       <c r="D93">
-        <v>0.04651635382256922</v>
+        <v>0.009658109003237055</v>
       </c>
       <c r="E93">
-        <v>0.05131757122080154</v>
+        <v>-0.02113810304181021</v>
       </c>
       <c r="F93">
-        <v>0.0333053519470952</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.004844285001441017</v>
+      </c>
+      <c r="G93">
+        <v>0.003112347637031778</v>
+      </c>
+      <c r="H93">
+        <v>0.008961595753258784</v>
+      </c>
+      <c r="I93">
+        <v>-0.001612861942732772</v>
+      </c>
+      <c r="J93">
+        <v>-0.004098859430629874</v>
+      </c>
+      <c r="K93">
+        <v>-0.0373997592688003</v>
+      </c>
+      <c r="L93">
+        <v>0.001759725067416643</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.1220165605642386</v>
+        <v>-0.118623951654085</v>
       </c>
       <c r="C94">
-        <v>0.05055329375931832</v>
+        <v>0.06452421764163141</v>
       </c>
       <c r="D94">
-        <v>-0.04056267774342433</v>
+        <v>-0.01202697045884151</v>
       </c>
       <c r="E94">
-        <v>0.03614608633453604</v>
+        <v>-0.02505655476279766</v>
       </c>
       <c r="F94">
-        <v>-0.004587289064053615</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.001500697142881863</v>
+      </c>
+      <c r="G94">
+        <v>0.05504959357927821</v>
+      </c>
+      <c r="H94">
+        <v>-0.1294665414726354</v>
+      </c>
+      <c r="I94">
+        <v>-0.001392610423197982</v>
+      </c>
+      <c r="J94">
+        <v>-0.02750412055849398</v>
+      </c>
+      <c r="K94">
+        <v>0.02964205478850248</v>
+      </c>
+      <c r="L94">
+        <v>0.05569649109086266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1222545772540987</v>
+        <v>-0.1357877970261686</v>
       </c>
       <c r="C95">
-        <v>0.09167650290983563</v>
+        <v>0.07817314118121571</v>
       </c>
       <c r="D95">
-        <v>-0.09529710914520496</v>
+        <v>-0.03432213088672849</v>
       </c>
       <c r="E95">
-        <v>0.08104247899483452</v>
+        <v>-0.05395701123820631</v>
       </c>
       <c r="F95">
-        <v>-0.0307112590627444</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.07523529099863906</v>
+      </c>
+      <c r="G95">
+        <v>-0.04197418862154445</v>
+      </c>
+      <c r="H95">
+        <v>0.1355991931521863</v>
+      </c>
+      <c r="I95">
+        <v>-0.06646041754939841</v>
+      </c>
+      <c r="J95">
+        <v>0.0145724481526074</v>
+      </c>
+      <c r="K95">
+        <v>0.02216411868651173</v>
+      </c>
+      <c r="L95">
+        <v>0.01905022054336657</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4345,142 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2529979052698101</v>
+        <v>-0.1850713473342922</v>
       </c>
       <c r="C97">
-        <v>-0.1529006310647125</v>
+        <v>-0.0239216076998373</v>
       </c>
       <c r="D97">
-        <v>-0.06665890009348395</v>
+        <v>0.285142581345503</v>
       </c>
       <c r="E97">
-        <v>-0.8847506116403735</v>
+        <v>0.8949942175505683</v>
       </c>
       <c r="F97">
-        <v>0.02259088667000962</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.02680821779254819</v>
+      </c>
+      <c r="G97">
+        <v>-0.04100839586925567</v>
+      </c>
+      <c r="H97">
+        <v>0.06807104401334398</v>
+      </c>
+      <c r="I97">
+        <v>-0.03435628925797409</v>
+      </c>
+      <c r="J97">
+        <v>0.07161236751403803</v>
+      </c>
+      <c r="K97">
+        <v>0.04428582631553667</v>
+      </c>
+      <c r="L97">
+        <v>0.0006550115654782454</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.2867844951411812</v>
+        <v>-0.279979050365774</v>
       </c>
       <c r="C98">
-        <v>0.06531780164606044</v>
+        <v>0.1071978099549423</v>
       </c>
       <c r="D98">
-        <v>-0.01331026791439927</v>
+        <v>-0.1355433051116358</v>
       </c>
       <c r="E98">
-        <v>0.08539519796588471</v>
+        <v>0.04824982152674546</v>
       </c>
       <c r="F98">
-        <v>-0.4954616009399663</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2606317131653206</v>
+      </c>
+      <c r="G98">
+        <v>0.3025708667435622</v>
+      </c>
+      <c r="H98">
+        <v>0.271890092555034</v>
+      </c>
+      <c r="I98">
+        <v>0.1954859009884915</v>
+      </c>
+      <c r="J98">
+        <v>-0.07454505812761643</v>
+      </c>
+      <c r="K98">
+        <v>-0.5990077467746028</v>
+      </c>
+      <c r="L98">
+        <v>0.2064121850022367</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.2739943418511148</v>
+        <v>-0.1608841042154937</v>
       </c>
       <c r="C99">
-        <v>0.232783861801107</v>
+        <v>0.1277324566578842</v>
       </c>
       <c r="D99">
-        <v>0.8597389371186335</v>
+        <v>0.533460433354938</v>
       </c>
       <c r="E99">
-        <v>-0.04645347988277806</v>
+        <v>-0.1798633441062059</v>
       </c>
       <c r="F99">
-        <v>-0.1622064781738626</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.6918586313441659</v>
+      </c>
+      <c r="G99">
+        <v>-0.005229298761053969</v>
+      </c>
+      <c r="H99">
+        <v>-0.1297746161230543</v>
+      </c>
+      <c r="I99">
+        <v>-0.07923381670045596</v>
+      </c>
+      <c r="J99">
+        <v>-0.05793905882535685</v>
+      </c>
+      <c r="K99">
+        <v>0.03084930774188406</v>
+      </c>
+      <c r="L99">
+        <v>-0.178418696629823</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4497,66 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.05482826562139999</v>
+        <v>-0.05161643792319411</v>
       </c>
       <c r="C101">
-        <v>-0.002355577487531163</v>
+        <v>0.01457097582103123</v>
       </c>
       <c r="D101">
-        <v>-0.02495746697221287</v>
+        <v>-0.007943144025542911</v>
       </c>
       <c r="E101">
-        <v>0.01865922212022243</v>
+        <v>-0.02064278857297137</v>
       </c>
       <c r="F101">
-        <v>0.03756434257924657</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03721558847838172</v>
+      </c>
+      <c r="G101">
+        <v>-0.03532101419251456</v>
+      </c>
+      <c r="H101">
+        <v>-0.05279386311211191</v>
+      </c>
+      <c r="I101">
+        <v>-0.04221398729763148</v>
+      </c>
+      <c r="J101">
+        <v>-0.01072483877714495</v>
+      </c>
+      <c r="K101">
+        <v>-0.03364838165441662</v>
+      </c>
+      <c r="L101">
+        <v>-0.01345274726121027</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4573,28 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4611,28 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
